--- a/data/trans_orig/P36B14-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B14-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08932477-9F4C-4999-8AB8-66CAF14F936E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C451B496-2109-4B70-A7F6-27FE8859244B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EDE86746-9229-48E0-A8B4-D9A48197FA7F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E79C3F92-F225-488E-819C-C25DEFB0E827}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="321">
-  <si>
-    <t>Población según la frecuencia de consumición de refrescos con azucar en 2015 (Tasa respuesta: 99,39%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="318">
+  <si>
+    <t>Población según la frecuencia de consumo de refrescos con azúcar en 2015 (Tasa respuesta: 99,39%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,28 +74,28 @@
     <t>9,7%</t>
   </si>
   <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
   </si>
   <si>
     <t>15,37%</t>
   </si>
   <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
   </si>
   <si>
     <t>12,46%</t>
   </si>
   <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
   </si>
   <si>
     <t>Menos de 1 vez semana</t>
@@ -104,28 +104,28 @@
     <t>11,33%</t>
   </si>
   <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
   </si>
   <si>
     <t>9,28%</t>
   </si>
   <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
   </si>
   <si>
     <t>10,33%</t>
   </si>
   <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
   </si>
   <si>
     <t>Una/dos veces a la semana</t>
@@ -134,28 +134,28 @@
     <t>18,39%</t>
   </si>
   <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
   </si>
   <si>
     <t>21,89%</t>
   </si>
   <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
   </si>
   <si>
     <t>20,09%</t>
   </si>
   <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
   </si>
   <si>
     <t>Tres o más veces a la semana</t>
@@ -164,838 +164,829 @@
     <t>27,23%</t>
   </si>
   <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
   </si>
   <si>
     <t>27,38%</t>
   </si>
   <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
   </si>
   <si>
     <t>27,3%</t>
   </si>
   <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
     <t>24,14%</t>
   </si>
   <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
   </si>
   <si>
     <t>16,98%</t>
   </si>
   <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
   </si>
   <si>
     <t>14,46%</t>
   </si>
   <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
+    <t>17,41%</t>
   </si>
   <si>
     <t>10,76%</t>
   </si>
   <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
   </si>
   <si>
     <t>12,61%</t>
   </si>
   <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>54,87%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>66,82%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>61,55%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
     <t>10,82%</t>
   </si>
   <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
   </si>
   <si>
     <t>18,53%</t>
   </si>
   <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>61,73%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
   </si>
   <si>
     <t>14,33%</t>
   </si>
   <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
+    <t>16,95%</t>
   </si>
   <si>
     <t>13,27%</t>
   </si>
   <si>
-    <t>12,18%</t>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
   </si>
   <si>
     <t>14,42%</t>
   </si>
   <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1410,7 +1401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC0BD15D-EDC6-49D2-B3E5-1FDD8B60289C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DFEF541-F7AB-4127-83A2-7015D5B297A2}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2046,13 +2037,13 @@
         <v>142281</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>129</v>
@@ -2061,13 +2052,13 @@
         <v>125995</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>268</v>
@@ -2076,13 +2067,13 @@
         <v>268276</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2138,7 +2129,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2150,13 +2141,13 @@
         <v>139262</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>164</v>
@@ -2165,13 +2156,13 @@
         <v>163239</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>293</v>
@@ -2180,13 +2171,13 @@
         <v>302500</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2201,13 +2192,13 @@
         <v>104342</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="H17" s="7">
         <v>121</v>
@@ -2270,10 +2261,10 @@
         <v>128</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="M18" s="7">
         <v>261</v>
@@ -2306,10 +2297,10 @@
         <v>133</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H19" s="7">
         <v>131</v>
@@ -2318,13 +2309,13 @@
         <v>128344</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>293</v>
@@ -2333,13 +2324,13 @@
         <v>295813</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2354,13 +2345,13 @@
         <v>113812</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>122</v>
@@ -2369,13 +2360,13 @@
         <v>121425</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>233</v>
@@ -2384,13 +2375,13 @@
         <v>235237</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2446,7 +2437,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2458,13 +2449,13 @@
         <v>205354</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>214</v>
@@ -2473,13 +2464,13 @@
         <v>231307</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>395</v>
@@ -2488,13 +2479,13 @@
         <v>436661</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2509,13 +2500,13 @@
         <v>127298</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H23" s="7">
         <v>121</v>
@@ -2524,13 +2515,13 @@
         <v>127640</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M23" s="7">
         <v>234</v>
@@ -2539,13 +2530,13 @@
         <v>254938</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2560,13 +2551,13 @@
         <v>128644</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H24" s="7">
         <v>110</v>
@@ -2575,13 +2566,13 @@
         <v>120006</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M24" s="7">
         <v>228</v>
@@ -2590,13 +2581,13 @@
         <v>248649</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2611,13 +2602,13 @@
         <v>90513</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H25" s="7">
         <v>90</v>
@@ -2626,13 +2617,13 @@
         <v>96471</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M25" s="7">
         <v>176</v>
@@ -2641,13 +2632,13 @@
         <v>186984</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2662,13 +2653,13 @@
         <v>93317</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>73</v>
+        <v>186</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>188</v>
+        <v>75</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H26" s="7">
         <v>63</v>
@@ -2677,13 +2668,13 @@
         <v>69375</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M26" s="7">
         <v>146</v>
@@ -2692,13 +2683,13 @@
         <v>162692</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2754,7 +2745,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2766,13 +2757,13 @@
         <v>221923</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H28" s="7">
         <v>219</v>
@@ -2781,13 +2772,13 @@
         <v>248583</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M28" s="7">
         <v>414</v>
@@ -2796,13 +2787,13 @@
         <v>470506</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2817,13 +2808,13 @@
         <v>95498</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H29" s="7">
         <v>76</v>
@@ -2832,13 +2823,13 @@
         <v>86059</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M29" s="7">
         <v>162</v>
@@ -2847,13 +2838,13 @@
         <v>181556</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2868,13 +2859,13 @@
         <v>79203</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>217</v>
+        <v>99</v>
       </c>
       <c r="H30" s="7">
         <v>63</v>
@@ -2883,13 +2874,13 @@
         <v>74465</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M30" s="7">
         <v>134</v>
@@ -2898,13 +2889,13 @@
         <v>153668</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2919,13 +2910,13 @@
         <v>54084</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>23</v>
+        <v>221</v>
       </c>
       <c r="H31" s="7">
         <v>50</v>
@@ -2934,13 +2925,13 @@
         <v>57773</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>182</v>
+        <v>224</v>
       </c>
       <c r="M31" s="7">
         <v>99</v>
@@ -2949,13 +2940,13 @@
         <v>111857</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2970,13 +2961,13 @@
         <v>19142</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="H32" s="7">
         <v>23</v>
@@ -2985,13 +2976,13 @@
         <v>27556</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M32" s="7">
         <v>39</v>
@@ -3000,13 +2991,13 @@
         <v>46698</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3062,7 +3053,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3074,13 +3065,13 @@
         <v>378471</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="H34" s="7">
         <v>409</v>
@@ -3089,13 +3080,13 @@
         <v>488610</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M34" s="7">
         <v>812</v>
@@ -3104,13 +3095,13 @@
         <v>867081</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3125,13 +3116,13 @@
         <v>90239</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="H35" s="7">
         <v>113</v>
@@ -3140,13 +3131,13 @@
         <v>131772</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="K35" s="7" t="s">
-        <v>252</v>
-      </c>
       <c r="L35" s="7" t="s">
-        <v>206</v>
+        <v>143</v>
       </c>
       <c r="M35" s="7">
         <v>208</v>
@@ -3155,13 +3146,13 @@
         <v>222012</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="P35" s="7" t="s">
-        <v>254</v>
-      </c>
       <c r="Q35" s="7" t="s">
-        <v>222</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3176,13 +3167,13 @@
         <v>66753</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="H36" s="7">
         <v>68</v>
@@ -3194,10 +3185,10 @@
         <v>27</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="M36" s="7">
         <v>139</v>
@@ -3206,10 +3197,10 @@
         <v>145901</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>194</v>
+        <v>258</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>260</v>
@@ -3388,7 +3379,7 @@
         <v>280</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>51</v>
+        <v>281</v>
       </c>
       <c r="H40" s="7">
         <v>1176</v>
@@ -3397,13 +3388,13 @@
         <v>1300804</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M40" s="7">
         <v>2197</v>
@@ -3412,13 +3403,13 @@
         <v>2368175</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3433,13 +3424,13 @@
         <v>533743</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>288</v>
+        <v>32</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>289</v>
+        <v>141</v>
       </c>
       <c r="H41" s="7">
         <v>554</v>
@@ -3448,13 +3439,13 @@
         <v>588165</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="L41" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="M41" s="7">
         <v>1055</v>
@@ -3463,13 +3454,13 @@
         <v>1121907</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>293</v>
+        <v>185</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>295</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3484,13 +3475,13 @@
         <v>617773</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H42" s="7">
         <v>580</v>
@@ -3499,13 +3490,13 @@
         <v>603212</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>299</v>
+        <v>176</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>222</v>
+        <v>297</v>
       </c>
       <c r="M42" s="7">
         <v>1171</v>
@@ -3514,13 +3505,13 @@
         <v>1220985</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3535,13 +3526,13 @@
         <v>625919</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H43" s="7">
         <v>550</v>
@@ -3550,13 +3541,13 @@
         <v>562697</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="M43" s="7">
         <v>1149</v>
@@ -3568,10 +3559,10 @@
         <v>122</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>311</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3586,13 +3577,13 @@
         <v>526300</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="H44" s="7">
         <v>460</v>
@@ -3601,13 +3592,13 @@
         <v>467390</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="M44" s="7">
         <v>957</v>
@@ -3616,13 +3607,13 @@
         <v>993690</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3678,7 +3669,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B14-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B14-Edad-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C451B496-2109-4B70-A7F6-27FE8859244B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B38BCD7D-9C35-491B-9EEA-056B60C6AADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E79C3F92-F225-488E-819C-C25DEFB0E827}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E725C340-1D0B-4AC5-BDBA-7DDCE0CB1463}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="318">
-  <si>
-    <t>Población según la frecuencia de consumo de refrescos con azúcar en 2015 (Tasa respuesta: 99,39%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="326">
+  <si>
+    <t>Población según la frecuencia de consumo de refrescos con azúcar en 2016 (Tasa respuesta: 99,39%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -77,25 +77,25 @@
     <t>6,98%</t>
   </si>
   <si>
-    <t>12,95%</t>
+    <t>13,12%</t>
   </si>
   <si>
     <t>15,37%</t>
   </si>
   <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
   </si>
   <si>
     <t>12,46%</t>
   </si>
   <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
   </si>
   <si>
     <t>Menos de 1 vez semana</t>
@@ -104,28 +104,28 @@
     <t>11,33%</t>
   </si>
   <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
   </si>
   <si>
     <t>9,28%</t>
   </si>
   <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
   </si>
   <si>
     <t>10,33%</t>
   </si>
   <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
   </si>
   <si>
     <t>Una/dos veces a la semana</t>
@@ -134,28 +134,28 @@
     <t>18,39%</t>
   </si>
   <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
   </si>
   <si>
     <t>21,89%</t>
   </si>
   <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
   </si>
   <si>
     <t>20,09%</t>
   </si>
   <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
   </si>
   <si>
     <t>Tres o más veces a la semana</t>
@@ -164,28 +164,28 @@
     <t>27,23%</t>
   </si>
   <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
     <t>23,21%</t>
   </si>
   <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
+    <t>31,81%</t>
   </si>
   <si>
     <t>27,3%</t>
   </si>
   <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
   </si>
   <si>
     <t>A diario</t>
@@ -194,10 +194,10 @@
     <t>33,34%</t>
   </si>
   <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
   </si>
   <si>
     <t>26,09%</t>
@@ -206,16 +206,16 @@
     <t>21,83%</t>
   </si>
   <si>
-    <t>30,6%</t>
+    <t>30,52%</t>
   </si>
   <si>
     <t>29,81%</t>
   </si>
   <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
   </si>
   <si>
     <t>100%</t>
@@ -227,748 +227,772 @@
     <t>13,89%</t>
   </si>
   <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
     <t>11,46%</t>
   </si>
   <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
   </si>
   <si>
     <t>17,13%</t>
   </si>
   <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>66,82%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
   </si>
   <si>
     <t>17,71%</t>
   </si>
   <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
   </si>
   <si>
     <t>18,57%</t>
   </si>
   <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
+    <t>20,0%</t>
   </si>
   <si>
     <t>15,98%</t>
   </si>
   <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
   </si>
   <si>
     <t>15,61%</t>
   </si>
   <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
   </si>
   <si>
     <t>13,27%</t>
@@ -977,16 +1001,16 @@
     <t>12,2%</t>
   </si>
   <si>
-    <t>14,41%</t>
+    <t>14,51%</t>
   </si>
   <si>
     <t>14,42%</t>
   </si>
   <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1401,7 +1425,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DFEF541-F7AB-4127-83A2-7015D5B297A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D538324A-922D-455C-AF74-DF3D2125C5AF}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2058,7 +2082,7 @@
         <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>103</v>
+        <v>36</v>
       </c>
       <c r="M14" s="7">
         <v>268</v>
@@ -2067,13 +2091,13 @@
         <v>268276</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2129,7 +2153,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2141,13 +2165,13 @@
         <v>139262</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>164</v>
@@ -2156,13 +2180,13 @@
         <v>163239</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>293</v>
@@ -2171,13 +2195,13 @@
         <v>302500</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2192,13 +2216,13 @@
         <v>104342</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="H17" s="7">
         <v>121</v>
@@ -2264,7 +2288,7 @@
         <v>129</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>83</v>
+        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>261</v>
@@ -2273,13 +2297,13 @@
         <v>263638</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2294,13 +2318,13 @@
         <v>167468</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>55</v>
+        <v>135</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>131</v>
@@ -2309,13 +2333,13 @@
         <v>128344</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>137</v>
+        <v>33</v>
       </c>
       <c r="M19" s="7">
         <v>293</v>
@@ -2324,13 +2348,13 @@
         <v>295813</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2345,10 +2369,10 @@
         <v>113812</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>143</v>
@@ -2632,13 +2656,13 @@
         <v>186984</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>142</v>
+        <v>184</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2653,13 +2677,13 @@
         <v>93317</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H26" s="7">
         <v>63</v>
@@ -2668,13 +2692,13 @@
         <v>69375</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M26" s="7">
         <v>146</v>
@@ -2683,13 +2707,13 @@
         <v>162692</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2745,7 +2769,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2757,13 +2781,13 @@
         <v>221923</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H28" s="7">
         <v>219</v>
@@ -2772,13 +2796,13 @@
         <v>248583</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M28" s="7">
         <v>414</v>
@@ -2787,13 +2811,13 @@
         <v>470506</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2808,13 +2832,13 @@
         <v>95498</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H29" s="7">
         <v>76</v>
@@ -2823,13 +2847,13 @@
         <v>86059</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>208</v>
+        <v>104</v>
       </c>
       <c r="M29" s="7">
         <v>162</v>
@@ -2838,13 +2862,13 @@
         <v>181556</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2859,13 +2883,13 @@
         <v>79203</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>99</v>
+        <v>216</v>
       </c>
       <c r="H30" s="7">
         <v>63</v>
@@ -2874,13 +2898,13 @@
         <v>74465</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M30" s="7">
         <v>134</v>
@@ -2889,13 +2913,13 @@
         <v>153668</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2910,13 +2934,13 @@
         <v>54084</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="H31" s="7">
         <v>50</v>
@@ -2925,13 +2949,13 @@
         <v>57773</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="M31" s="7">
         <v>99</v>
@@ -2940,13 +2964,13 @@
         <v>111857</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2961,13 +2985,13 @@
         <v>19142</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H32" s="7">
         <v>23</v>
@@ -2976,13 +3000,13 @@
         <v>27556</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="M32" s="7">
         <v>39</v>
@@ -2991,13 +3015,13 @@
         <v>46698</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3053,7 +3077,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3065,13 +3089,13 @@
         <v>378471</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="H34" s="7">
         <v>409</v>
@@ -3080,13 +3104,13 @@
         <v>488610</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="M34" s="7">
         <v>812</v>
@@ -3095,13 +3119,13 @@
         <v>867081</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3116,13 +3140,13 @@
         <v>90239</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>249</v>
+        <v>126</v>
       </c>
       <c r="H35" s="7">
         <v>113</v>
@@ -3131,13 +3155,13 @@
         <v>131772</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>143</v>
+        <v>255</v>
       </c>
       <c r="M35" s="7">
         <v>208</v>
@@ -3146,13 +3170,13 @@
         <v>222012</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>253</v>
+        <v>187</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>172</v>
+        <v>257</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3167,13 +3191,13 @@
         <v>66753</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>63</v>
+        <v>258</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="H36" s="7">
         <v>68</v>
@@ -3185,10 +3209,10 @@
         <v>27</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="M36" s="7">
         <v>139</v>
@@ -3197,13 +3221,13 @@
         <v>145901</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3218,13 +3242,13 @@
         <v>28276</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="H37" s="7">
         <v>40</v>
@@ -3233,13 +3257,13 @@
         <v>46738</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="M37" s="7">
         <v>70</v>
@@ -3248,13 +3272,13 @@
         <v>75014</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3269,13 +3293,13 @@
         <v>18610</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="H38" s="7">
         <v>17</v>
@@ -3284,13 +3308,13 @@
         <v>19796</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="M38" s="7">
         <v>36</v>
@@ -3299,13 +3323,13 @@
         <v>38406</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3373,13 +3397,13 @@
         <v>1067371</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="H40" s="7">
         <v>1176</v>
@@ -3388,13 +3412,13 @@
         <v>1300804</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="M40" s="7">
         <v>2197</v>
@@ -3403,13 +3427,13 @@
         <v>2368175</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3424,13 +3448,13 @@
         <v>533743</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>32</v>
+        <v>294</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>141</v>
+        <v>295</v>
       </c>
       <c r="H41" s="7">
         <v>554</v>
@@ -3439,13 +3463,13 @@
         <v>588165</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="M41" s="7">
         <v>1055</v>
@@ -3454,13 +3478,13 @@
         <v>1121907</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>185</v>
+        <v>299</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>64</v>
+        <v>301</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3475,13 +3499,13 @@
         <v>617773</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>293</v>
+        <v>183</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>294</v>
+        <v>64</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="H42" s="7">
         <v>580</v>
@@ -3490,13 +3514,13 @@
         <v>603212</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>176</v>
+        <v>303</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="M42" s="7">
         <v>1171</v>
@@ -3505,13 +3529,13 @@
         <v>1220985</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3526,13 +3550,13 @@
         <v>625919</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="H43" s="7">
         <v>550</v>
@@ -3541,13 +3565,13 @@
         <v>562697</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="M43" s="7">
         <v>1149</v>
@@ -3559,10 +3583,10 @@
         <v>122</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>81</v>
+        <v>315</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3577,13 +3601,13 @@
         <v>526300</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="H44" s="7">
         <v>460</v>
@@ -3592,13 +3616,13 @@
         <v>467390</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="M44" s="7">
         <v>957</v>
@@ -3607,13 +3631,13 @@
         <v>993690</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3669,7 +3693,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B14-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B14-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B38BCD7D-9C35-491B-9EEA-056B60C6AADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1A4B5B0-7D12-4351-8A17-D1A4E27FCE43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E725C340-1D0B-4AC5-BDBA-7DDCE0CB1463}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A687C905-0CBF-45D8-8033-04C92C7787A9}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="321">
   <si>
     <t>Población según la frecuencia de consumo de refrescos con azúcar en 2016 (Tasa respuesta: 99,39%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>9,7%</t>
   </si>
   <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
   </si>
   <si>
     <t>15,37%</t>
   </si>
   <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
   </si>
   <si>
     <t>12,46%</t>
   </si>
   <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
   </si>
   <si>
     <t>Menos de 1 vez semana</t>
@@ -104,58 +104,58 @@
     <t>11,33%</t>
   </si>
   <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
   </si>
   <si>
     <t>9,28%</t>
   </si>
   <si>
-    <t>6,66%</t>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
   </si>
   <si>
     <t>12,64%</t>
   </si>
   <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
     <t>Una/dos veces a la semana</t>
   </si>
   <si>
     <t>18,39%</t>
   </si>
   <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
   </si>
   <si>
     <t>21,89%</t>
   </si>
   <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
   </si>
   <si>
     <t>20,09%</t>
   </si>
   <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
   </si>
   <si>
     <t>Tres o más veces a la semana</t>
@@ -164,28 +164,28 @@
     <t>27,23%</t>
   </si>
   <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
   </si>
   <si>
     <t>27,38%</t>
   </si>
   <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
   </si>
   <si>
     <t>27,3%</t>
   </si>
   <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
   </si>
   <si>
     <t>A diario</t>
@@ -194,28 +194,28 @@
     <t>33,34%</t>
   </si>
   <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
   </si>
   <si>
     <t>26,09%</t>
   </si>
   <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
   </si>
   <si>
     <t>29,81%</t>
   </si>
   <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
   </si>
   <si>
     <t>100%</t>
@@ -227,769 +227,757 @@
     <t>13,89%</t>
   </si>
   <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
   </si>
   <si>
     <t>19,24%</t>
   </si>
   <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
   </si>
   <si>
     <t>16,5%</t>
   </si>
   <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>61,37%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>60,08%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>61,73%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
     <t>14,47%</t>
   </si>
   <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
   </si>
   <si>
     <t>15,48%</t>
   </si>
   <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
   </si>
   <si>
     <t>18,33%</t>
   </si>
   <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>68,99%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
   </si>
   <si>
     <t>17,13%</t>
   </si>
   <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
+    <t>15,86%</t>
   </si>
   <si>
     <t>17,71%</t>
   </si>
   <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
   </si>
   <si>
     <t>18,57%</t>
   </si>
   <si>
-    <t>20,0%</t>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
   </si>
   <si>
     <t>15,98%</t>
   </si>
   <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
   </si>
   <si>
     <t>16,32%</t>
   </si>
   <si>
-    <t>18,17%</t>
+    <t>18,19%</t>
   </si>
   <si>
     <t>15,61%</t>
   </si>
   <si>
-    <t>14,32%</t>
+    <t>14,37%</t>
   </si>
   <si>
     <t>16,84%</t>
@@ -998,19 +986,16 @@
     <t>13,27%</t>
   </si>
   <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
+    <t>12,18%</t>
   </si>
   <si>
     <t>14,42%</t>
   </si>
   <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1425,7 +1410,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D538324A-922D-455C-AF74-DF3D2125C5AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3EC5B32-55A1-481F-8031-8CE28E7F7C58}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2061,13 +2046,13 @@
         <v>142281</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>129</v>
@@ -2076,13 +2061,13 @@
         <v>125995</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M14" s="7">
         <v>268</v>
@@ -2285,10 +2270,10 @@
         <v>128</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>261</v>
@@ -2297,13 +2282,13 @@
         <v>263638</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2318,13 +2303,13 @@
         <v>167468</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>131</v>
@@ -2333,13 +2318,13 @@
         <v>128344</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="M19" s="7">
         <v>293</v>
@@ -2372,10 +2357,10 @@
         <v>142</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>69</v>
+        <v>143</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>122</v>
@@ -2384,13 +2369,13 @@
         <v>121425</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>233</v>
@@ -2399,13 +2384,13 @@
         <v>235237</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2461,7 +2446,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2473,13 +2458,13 @@
         <v>205354</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>214</v>
@@ -2488,13 +2473,13 @@
         <v>231307</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>395</v>
@@ -2503,13 +2488,13 @@
         <v>436661</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2524,13 +2509,13 @@
         <v>127298</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H23" s="7">
         <v>121</v>
@@ -2539,13 +2524,13 @@
         <v>127640</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M23" s="7">
         <v>234</v>
@@ -2554,13 +2539,13 @@
         <v>254938</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2575,13 +2560,13 @@
         <v>128644</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H24" s="7">
         <v>110</v>
@@ -2590,13 +2575,13 @@
         <v>120006</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M24" s="7">
         <v>228</v>
@@ -2605,13 +2590,13 @@
         <v>248649</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2626,13 +2611,13 @@
         <v>90513</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H25" s="7">
         <v>90</v>
@@ -2641,13 +2626,13 @@
         <v>96471</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M25" s="7">
         <v>176</v>
@@ -2656,13 +2641,13 @@
         <v>186984</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2677,7 +2662,7 @@
         <v>93317</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>187</v>
+        <v>73</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>188</v>
@@ -2853,7 +2838,7 @@
         <v>210</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>104</v>
+        <v>211</v>
       </c>
       <c r="M29" s="7">
         <v>162</v>
@@ -2862,13 +2847,13 @@
         <v>181556</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2883,13 +2868,13 @@
         <v>79203</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H30" s="7">
         <v>63</v>
@@ -2898,10 +2883,10 @@
         <v>74465</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>219</v>
@@ -2940,7 +2925,7 @@
         <v>224</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>225</v>
+        <v>23</v>
       </c>
       <c r="H31" s="7">
         <v>50</v>
@@ -2949,13 +2934,13 @@
         <v>57773</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="K31" s="7" t="s">
-        <v>227</v>
-      </c>
       <c r="L31" s="7" t="s">
-        <v>228</v>
+        <v>182</v>
       </c>
       <c r="M31" s="7">
         <v>99</v>
@@ -2964,13 +2949,13 @@
         <v>111857</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>231</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2985,13 +2970,13 @@
         <v>19142</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H32" s="7">
         <v>23</v>
@@ -3000,13 +2985,13 @@
         <v>27556</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="M32" s="7">
         <v>39</v>
@@ -3015,13 +3000,13 @@
         <v>46698</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3077,7 +3062,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3089,13 +3074,13 @@
         <v>378471</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H34" s="7">
         <v>409</v>
@@ -3104,13 +3089,13 @@
         <v>488610</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="M34" s="7">
         <v>812</v>
@@ -3119,13 +3104,13 @@
         <v>867081</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3140,13 +3125,13 @@
         <v>90239</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>126</v>
+        <v>250</v>
       </c>
       <c r="H35" s="7">
         <v>113</v>
@@ -3155,13 +3140,13 @@
         <v>131772</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>255</v>
+        <v>206</v>
       </c>
       <c r="M35" s="7">
         <v>208</v>
@@ -3170,13 +3155,13 @@
         <v>222012</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>187</v>
+        <v>254</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3191,13 +3176,13 @@
         <v>66753</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H36" s="7">
         <v>68</v>
@@ -3209,10 +3194,10 @@
         <v>27</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="M36" s="7">
         <v>139</v>
@@ -3221,13 +3206,13 @@
         <v>145901</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>263</v>
+        <v>194</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3242,13 +3227,13 @@
         <v>28276</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="H37" s="7">
         <v>40</v>
@@ -3257,13 +3242,13 @@
         <v>46738</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="M37" s="7">
         <v>70</v>
@@ -3272,13 +3257,13 @@
         <v>75014</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3293,13 +3278,13 @@
         <v>18610</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="H38" s="7">
         <v>17</v>
@@ -3308,13 +3293,13 @@
         <v>19796</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="M38" s="7">
         <v>36</v>
@@ -3323,13 +3308,13 @@
         <v>38406</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3397,13 +3382,13 @@
         <v>1067371</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>286</v>
+        <v>51</v>
       </c>
       <c r="H40" s="7">
         <v>1176</v>
@@ -3412,13 +3397,13 @@
         <v>1300804</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="M40" s="7">
         <v>2197</v>
@@ -3427,13 +3412,13 @@
         <v>2368175</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3448,13 +3433,13 @@
         <v>533743</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="H41" s="7">
         <v>554</v>
@@ -3463,13 +3448,13 @@
         <v>588165</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="M41" s="7">
         <v>1055</v>
@@ -3478,13 +3463,13 @@
         <v>1121907</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3499,13 +3484,13 @@
         <v>617773</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>183</v>
+        <v>296</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>64</v>
+        <v>297</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H42" s="7">
         <v>580</v>
@@ -3514,13 +3499,13 @@
         <v>603212</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>305</v>
+        <v>222</v>
       </c>
       <c r="M42" s="7">
         <v>1171</v>
@@ -3529,13 +3514,13 @@
         <v>1220985</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3550,13 +3535,13 @@
         <v>625919</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="H43" s="7">
         <v>550</v>
@@ -3565,13 +3550,13 @@
         <v>562697</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="M43" s="7">
         <v>1149</v>
@@ -3583,10 +3568,10 @@
         <v>122</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3601,13 +3586,13 @@
         <v>526300</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="H44" s="7">
         <v>460</v>
@@ -3616,13 +3601,13 @@
         <v>467390</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="M44" s="7">
         <v>957</v>
@@ -3631,13 +3616,13 @@
         <v>993690</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3693,7 +3678,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B14-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B14-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1A4B5B0-7D12-4351-8A17-D1A4E27FCE43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B0949E8-AA65-42EA-AD9D-1347242DAC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A687C905-0CBF-45D8-8033-04C92C7787A9}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{320D362E-0F31-4F8C-B154-488FBABD3C20}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="368">
   <si>
     <t>Población según la frecuencia de consumo de refrescos con azúcar en 2016 (Tasa respuesta: 99,39%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Nunca o casi nunca</t>
@@ -221,7 +221,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>13,89%</t>
@@ -356,7 +356,7 @@
     <t>25,79%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>20,88%</t>
@@ -491,7 +491,7 @@
     <t>19,93%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>31,83%</t>
@@ -626,7 +626,7 @@
     <t>14,78%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>47,23%</t>
@@ -752,127 +752,271 @@
     <t>6,69%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>61,73%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>65,25%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>66,11%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>61,83%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>64,98%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
   </si>
   <si>
     <t>3,27%</t>
   </si>
   <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
   </si>
   <si>
     <t>31,66%</t>
@@ -963,9 +1107,6 @@
   </si>
   <si>
     <t>14,83%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
   </si>
   <si>
     <t>16,32%</t>
@@ -1410,8 +1551,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3EC5B32-55A1-481F-8031-8CE28E7F7C58}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F3D2E37-B5F7-4BF1-A3EA-35B3D43CBE35}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3068,10 +3209,10 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>403</v>
+        <v>193</v>
       </c>
       <c r="D34" s="7">
-        <v>378471</v>
+        <v>199872</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>239</v>
@@ -3083,10 +3224,10 @@
         <v>241</v>
       </c>
       <c r="H34" s="7">
-        <v>409</v>
+        <v>211</v>
       </c>
       <c r="I34" s="7">
-        <v>488610</v>
+        <v>225883</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>242</v>
@@ -3098,10 +3239,10 @@
         <v>244</v>
       </c>
       <c r="M34" s="7">
-        <v>812</v>
+        <v>404</v>
       </c>
       <c r="N34" s="7">
-        <v>867081</v>
+        <v>425755</v>
       </c>
       <c r="O34" s="7" t="s">
         <v>245</v>
@@ -3119,10 +3260,10 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="D35" s="7">
-        <v>90239</v>
+        <v>57561</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>248</v>
@@ -3134,10 +3275,10 @@
         <v>250</v>
       </c>
       <c r="H35" s="7">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="I35" s="7">
-        <v>131772</v>
+        <v>71945</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>251</v>
@@ -3146,22 +3287,22 @@
         <v>252</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>206</v>
+        <v>253</v>
       </c>
       <c r="M35" s="7">
-        <v>208</v>
+        <v>124</v>
       </c>
       <c r="N35" s="7">
-        <v>222012</v>
+        <v>129506</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>222</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3170,49 +3311,49 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="D36" s="7">
-        <v>66753</v>
+        <v>46548</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H36" s="7">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="I36" s="7">
-        <v>79148</v>
+        <v>45572</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>27</v>
+        <v>260</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="M36" s="7">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="N36" s="7">
-        <v>145901</v>
+        <v>92120</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>194</v>
+        <v>263</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3221,49 +3362,49 @@
         <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D37" s="7">
-        <v>28276</v>
+        <v>17793</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="H37" s="7">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="I37" s="7">
-        <v>46738</v>
+        <v>24819</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="M37" s="7">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="N37" s="7">
-        <v>75014</v>
+        <v>42612</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3272,49 +3413,49 @@
         <v>50</v>
       </c>
       <c r="C38" s="7">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D38" s="7">
-        <v>18610</v>
+        <v>10437</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="H38" s="7">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I38" s="7">
-        <v>19796</v>
+        <v>8438</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="M38" s="7">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="N38" s="7">
-        <v>38406</v>
+        <v>18875</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3323,10 +3464,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>618</v>
+        <v>323</v>
       </c>
       <c r="D39" s="7">
-        <v>582349</v>
+        <v>332211</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>60</v>
@@ -3338,10 +3479,10 @@
         <v>60</v>
       </c>
       <c r="H39" s="7">
-        <v>647</v>
+        <v>353</v>
       </c>
       <c r="I39" s="7">
-        <v>766064</v>
+        <v>376656</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>60</v>
@@ -3353,10 +3494,10 @@
         <v>60</v>
       </c>
       <c r="M39" s="7">
-        <v>1265</v>
+        <v>676</v>
       </c>
       <c r="N39" s="7">
-        <v>1348413</v>
+        <v>708867</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>60</v>
@@ -3370,55 +3511,55 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>284</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>1021</v>
+        <v>210</v>
       </c>
       <c r="D40" s="7">
-        <v>1067371</v>
+        <v>178599</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>51</v>
+        <v>287</v>
       </c>
       <c r="H40" s="7">
-        <v>1176</v>
+        <v>198</v>
       </c>
       <c r="I40" s="7">
-        <v>1300804</v>
+        <v>262727</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="M40" s="7">
-        <v>2197</v>
+        <v>408</v>
       </c>
       <c r="N40" s="7">
-        <v>2368175</v>
+        <v>441326</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3427,49 +3568,49 @@
         <v>20</v>
       </c>
       <c r="C41" s="7">
-        <v>501</v>
+        <v>39</v>
       </c>
       <c r="D41" s="7">
-        <v>533743</v>
+        <v>32678</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="H41" s="7">
-        <v>554</v>
+        <v>45</v>
       </c>
       <c r="I41" s="7">
-        <v>588165</v>
+        <v>59827</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>291</v>
+        <v>71</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="M41" s="7">
-        <v>1055</v>
+        <v>84</v>
       </c>
       <c r="N41" s="7">
-        <v>1121907</v>
+        <v>92506</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>293</v>
+        <v>73</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3478,49 +3619,49 @@
         <v>30</v>
       </c>
       <c r="C42" s="7">
-        <v>591</v>
+        <v>25</v>
       </c>
       <c r="D42" s="7">
-        <v>617773</v>
+        <v>20205</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="H42" s="7">
-        <v>580</v>
+        <v>25</v>
       </c>
       <c r="I42" s="7">
-        <v>603212</v>
+        <v>33576</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>222</v>
+        <v>306</v>
       </c>
       <c r="M42" s="7">
-        <v>1171</v>
+        <v>50</v>
       </c>
       <c r="N42" s="7">
-        <v>1220985</v>
+        <v>53781</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3529,49 +3670,49 @@
         <v>40</v>
       </c>
       <c r="C43" s="7">
-        <v>599</v>
+        <v>12</v>
       </c>
       <c r="D43" s="7">
-        <v>625919</v>
+        <v>10483</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="H43" s="7">
-        <v>550</v>
+        <v>17</v>
       </c>
       <c r="I43" s="7">
-        <v>562697</v>
+        <v>21919</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="M43" s="7">
-        <v>1149</v>
+        <v>29</v>
       </c>
       <c r="N43" s="7">
-        <v>1188616</v>
+        <v>32402</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>122</v>
+        <v>315</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3580,49 +3721,49 @@
         <v>50</v>
       </c>
       <c r="C44" s="7">
-        <v>497</v>
+        <v>9</v>
       </c>
       <c r="D44" s="7">
-        <v>526300</v>
+        <v>8173</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="H44" s="7">
-        <v>460</v>
+        <v>9</v>
       </c>
       <c r="I44" s="7">
-        <v>467390</v>
+        <v>11358</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="M44" s="7">
-        <v>957</v>
+        <v>18</v>
       </c>
       <c r="N44" s="7">
-        <v>993690</v>
+        <v>19532</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3631,63 +3772,372 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>295</v>
+      </c>
+      <c r="D45" s="7">
+        <v>250138</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H45" s="7">
+        <v>294</v>
+      </c>
+      <c r="I45" s="7">
+        <v>389408</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M45" s="7">
+        <v>589</v>
+      </c>
+      <c r="N45" s="7">
+        <v>639546</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>1021</v>
+      </c>
+      <c r="D46" s="7">
+        <v>1067371</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H46" s="7">
+        <v>1176</v>
+      </c>
+      <c r="I46" s="7">
+        <v>1300804</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="M46" s="7">
+        <v>2197</v>
+      </c>
+      <c r="N46" s="7">
+        <v>2368175</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="7">
+        <v>501</v>
+      </c>
+      <c r="D47" s="7">
+        <v>533743</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="H47" s="7">
+        <v>554</v>
+      </c>
+      <c r="I47" s="7">
+        <v>588164</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="M47" s="7">
+        <v>1055</v>
+      </c>
+      <c r="N47" s="7">
+        <v>1121907</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="7">
+        <v>591</v>
+      </c>
+      <c r="D48" s="7">
+        <v>617773</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="H48" s="7">
+        <v>580</v>
+      </c>
+      <c r="I48" s="7">
+        <v>603212</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="M48" s="7">
+        <v>1171</v>
+      </c>
+      <c r="N48" s="7">
+        <v>1220985</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="7">
+        <v>599</v>
+      </c>
+      <c r="D49" s="7">
+        <v>625919</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="H49" s="7">
+        <v>550</v>
+      </c>
+      <c r="I49" s="7">
+        <v>562697</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="M49" s="7">
+        <v>1149</v>
+      </c>
+      <c r="N49" s="7">
+        <v>1188616</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="7">
+        <v>497</v>
+      </c>
+      <c r="D50" s="7">
+        <v>526300</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="H50" s="7">
+        <v>460</v>
+      </c>
+      <c r="I50" s="7">
+        <v>467390</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="M50" s="7">
+        <v>957</v>
+      </c>
+      <c r="N50" s="7">
+        <v>993690</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>3209</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D51" s="7">
         <v>3371106</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="E51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H51" s="7">
         <v>3320</v>
       </c>
-      <c r="I45" s="7">
-        <v>3522268</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="I51" s="7">
+        <v>3522267</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M51" s="7">
         <v>6529</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N51" s="7">
         <v>6893373</v>
       </c>
-      <c r="O45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>320</v>
+      <c r="O51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>367</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
